--- a/data/prunning_threshold_fine.xlsx
+++ b/data/prunning_threshold_fine.xlsx
@@ -488,28 +488,28 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>441</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>813</v>
       </c>
       <c r="F2" t="n">
-        <v>42.85714285714285</v>
+        <v>61.43057503506311</v>
       </c>
       <c r="G2" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H2" t="n">
-        <v>2.100674152374268</v>
+        <v>2.228935641050339</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00143885612487793</v>
+        <v>0.0007354114736829485</v>
       </c>
       <c r="J2" t="n">
-        <v>69510</v>
+        <v>77308.5</v>
       </c>
     </row>
     <row r="3">
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -532,16 +532,16 @@
         <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0368504524230957</v>
+        <v>0.06055860604558672</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0004835128784179688</v>
+        <v>0.0004764088562556675</v>
       </c>
       <c r="J3" t="n">
-        <v>20</v>
+        <v>40.43571428571428</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +555,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -564,16 +564,16 @@
         <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03656816482543945</v>
+        <v>0.06014979651996068</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0004670619964599609</v>
+        <v>0.0004645279475620815</v>
       </c>
       <c r="J4" t="n">
-        <v>20</v>
+        <v>58.87857142857143</v>
       </c>
     </row>
     <row r="5">
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -596,16 +596,16 @@
         <v>100</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07298064231872559</v>
+        <v>0.06022317579814366</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0005071163177490234</v>
+        <v>0.0004870619092668806</v>
       </c>
       <c r="J5" t="n">
-        <v>20</v>
+        <v>77.90714285714286</v>
       </c>
     </row>
     <row r="6">
@@ -619,7 +619,7 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -628,16 +628,16 @@
         <v>100</v>
       </c>
       <c r="G6" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0755162239074707</v>
+        <v>0.06250007833753313</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0004739761352539062</v>
+        <v>0.0004586688109806606</v>
       </c>
       <c r="J6" t="n">
-        <v>52</v>
+        <v>104.5214285714286</v>
       </c>
     </row>
     <row r="7">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -660,16 +660,16 @@
         <v>100</v>
       </c>
       <c r="G7" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07568550109863281</v>
+        <v>0.06337637986455645</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0004870891571044922</v>
+        <v>0.0004969997065407889</v>
       </c>
       <c r="J7" t="n">
-        <v>60</v>
+        <v>131.8071428571428</v>
       </c>
     </row>
     <row r="8">
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -692,16 +692,16 @@
         <v>100</v>
       </c>
       <c r="G8" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03748941421508789</v>
+        <v>0.06448777828897749</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0004603862762451172</v>
+        <v>0.0004710853099822998</v>
       </c>
       <c r="J8" t="n">
-        <v>60</v>
+        <v>152.8928571428571</v>
       </c>
     </row>
     <row r="9">
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -724,16 +724,16 @@
         <v>100</v>
       </c>
       <c r="G9" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03800868988037109</v>
+        <v>0.0623174854687282</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0004675388336181641</v>
+        <v>0.0004595799105507987</v>
       </c>
       <c r="J9" t="n">
-        <v>84</v>
+        <v>174.8071428571428</v>
       </c>
     </row>
     <row r="10">
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -756,16 +756,16 @@
         <v>100</v>
       </c>
       <c r="G10" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H10" t="n">
-        <v>0.03928279876708984</v>
+        <v>0.06401557837213789</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0004839897155761719</v>
+        <v>0.0004551206316266741</v>
       </c>
       <c r="J10" t="n">
-        <v>100</v>
+        <v>200.3071428571428</v>
       </c>
     </row>
     <row r="11">
@@ -779,7 +779,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -788,16 +788,16 @@
         <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H11" t="n">
-        <v>0.08955955505371094</v>
+        <v>0.06583506635257176</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0004842281341552734</v>
+        <v>0.000465015002659389</v>
       </c>
       <c r="J11" t="n">
-        <v>108</v>
+        <v>224.9357142857143</v>
       </c>
     </row>
     <row r="12">
@@ -811,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -820,16 +820,16 @@
         <v>100</v>
       </c>
       <c r="G12" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H12" t="n">
-        <v>0.07682251930236816</v>
+        <v>0.06619401914732796</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0004730224609375</v>
+        <v>0.0004775209086281913</v>
       </c>
       <c r="J12" t="n">
-        <v>114</v>
+        <v>254.9785714285714</v>
       </c>
     </row>
     <row r="13">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -852,16 +852,16 @@
         <v>100</v>
       </c>
       <c r="G13" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H13" t="n">
-        <v>0.07897257804870605</v>
+        <v>0.06732396568570818</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0004849433898925781</v>
+        <v>0.0004579603672027588</v>
       </c>
       <c r="J13" t="n">
-        <v>144</v>
+        <v>282.7214285714286</v>
       </c>
     </row>
     <row r="14">
@@ -875,7 +875,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -884,16 +884,16 @@
         <v>100</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H14" t="n">
-        <v>0.04037761688232422</v>
+        <v>0.06638043693133763</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0004980564117431641</v>
+        <v>0.0006083181926182338</v>
       </c>
       <c r="J14" t="n">
-        <v>160</v>
+        <v>311.1642857142857</v>
       </c>
     </row>
     <row r="15">
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -916,16 +916,16 @@
         <v>100</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H15" t="n">
-        <v>0.04117131233215332</v>
+        <v>0.06810783999306814</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0004737377166748047</v>
+        <v>0.0004702091217041016</v>
       </c>
       <c r="J15" t="n">
-        <v>178</v>
+        <v>340.6714285714286</v>
       </c>
     </row>
     <row r="16">
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -948,16 +948,16 @@
         <v>100</v>
       </c>
       <c r="G16" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H16" t="n">
-        <v>0.04092049598693848</v>
+        <v>0.07060336640902928</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0004706382751464844</v>
+        <v>0.0004617094993591308</v>
       </c>
       <c r="J16" t="n">
-        <v>184</v>
+        <v>370.3928571428572</v>
       </c>
     </row>
     <row r="17">
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -980,16 +980,16 @@
         <v>100</v>
       </c>
       <c r="G17" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H17" t="n">
-        <v>0.04218769073486328</v>
+        <v>0.06854764563696725</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0004794597625732422</v>
+        <v>0.0004321507045200893</v>
       </c>
       <c r="J17" t="n">
-        <v>208</v>
+        <v>404.9214285714286</v>
       </c>
     </row>
     <row r="18">
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1012,16 +1012,16 @@
         <v>100</v>
       </c>
       <c r="G18" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08047866821289062</v>
+        <v>0.06898508157048906</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0004992485046386719</v>
+        <v>0.0004373507840292794</v>
       </c>
       <c r="J18" t="n">
-        <v>234</v>
+        <v>441.5928571428572</v>
       </c>
     </row>
     <row r="19">
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1044,16 +1044,16 @@
         <v>100</v>
       </c>
       <c r="G19" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H19" t="n">
-        <v>0.08149504661560059</v>
+        <v>0.07259966049875533</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0004796981811523438</v>
+        <v>0.0004449997629438128</v>
       </c>
       <c r="J19" t="n">
-        <v>256</v>
+        <v>477.85</v>
       </c>
     </row>
     <row r="20">
@@ -1067,25 +1067,25 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>2137</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>99.90649836372137</v>
       </c>
       <c r="G20" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04215478897094727</v>
+        <v>0.07402014306613378</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0005092620849609375</v>
+        <v>0.0004847850118364606</v>
       </c>
       <c r="J20" t="n">
-        <v>264</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21">
@@ -1099,25 +1099,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>2137</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>99.90649836372137</v>
       </c>
       <c r="G21" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0441131591796875</v>
+        <v>0.08134279421397618</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0005166530609130859</v>
+        <v>0.0005690174443381173</v>
       </c>
       <c r="J21" t="n">
-        <v>274</v>
+        <v>549.75</v>
       </c>
     </row>
     <row r="22">
@@ -1131,25 +1131,25 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>7</v>
+        <v>2137</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>99.90649836372137</v>
       </c>
       <c r="G22" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H22" t="n">
-        <v>0.04541826248168945</v>
+        <v>0.07863310490335737</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00048065185546875</v>
+        <v>0.0005589008331298828</v>
       </c>
       <c r="J22" t="n">
-        <v>314</v>
+        <v>593.2928571428571</v>
       </c>
     </row>
     <row r="23">
@@ -1163,25 +1163,25 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>2137</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>99.90649836372137</v>
       </c>
       <c r="G23" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H23" t="n">
-        <v>0.04677009582519531</v>
+        <v>0.07606216754232134</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0005142688751220703</v>
+        <v>0.0004411169460841587</v>
       </c>
       <c r="J23" t="n">
-        <v>346</v>
+        <v>634.3285714285714</v>
       </c>
     </row>
     <row r="24">
@@ -1195,25 +1195,25 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>7</v>
+        <v>2135</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>100</v>
+        <v>99.81299672744272</v>
       </c>
       <c r="G24" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0831141471862793</v>
+        <v>0.07853176593780517</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0004775524139404297</v>
+        <v>0.0004425900323050363</v>
       </c>
       <c r="J24" t="n">
-        <v>360</v>
+        <v>678.0857142857143</v>
       </c>
     </row>
     <row r="25">
@@ -1227,25 +1227,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>7</v>
+        <v>2134</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>100</v>
+        <v>99.76624590930341</v>
       </c>
       <c r="G25" t="n">
-        <v>7</v>
+        <v>2139</v>
       </c>
       <c r="H25" t="n">
-        <v>0.08473372459411621</v>
+        <v>0.08074371133531844</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0004839897155761719</v>
+        <v>0.0005054252488272531</v>
       </c>
       <c r="J25" t="n">
-        <v>366</v>
+        <v>726.3571428571429</v>
       </c>
     </row>
   </sheetData>
